--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Gphb5</t>
+  </si>
+  <si>
+    <t>Tshr</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Gphb5</t>
-  </si>
-  <si>
-    <t>Tshr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3638525</v>
+        <v>0.7367224999999999</v>
       </c>
       <c r="H2">
-        <v>2.727705</v>
+        <v>1.473445</v>
       </c>
       <c r="I2">
-        <v>0.3922705429335345</v>
+        <v>0.2969570390816903</v>
       </c>
       <c r="J2">
-        <v>0.339883908619157</v>
+        <v>0.2697006915285013</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N2">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q2">
-        <v>0.9905558418562499</v>
+        <v>0.2204369493925</v>
       </c>
       <c r="R2">
-        <v>3.962223367425</v>
+        <v>0.88174779757</v>
       </c>
       <c r="S2">
-        <v>0.1158110337562544</v>
+        <v>0.0289236302320751</v>
       </c>
       <c r="T2">
-        <v>0.08345337794932053</v>
+        <v>0.01924760308535156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3638525</v>
+        <v>0.7367224999999999</v>
       </c>
       <c r="H3">
-        <v>2.727705</v>
+        <v>1.473445</v>
       </c>
       <c r="I3">
-        <v>0.3922705429335345</v>
+        <v>0.2969570390816903</v>
       </c>
       <c r="J3">
-        <v>0.339883908619157</v>
+        <v>0.2697006915285013</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q3">
-        <v>0.55694462537</v>
+        <v>0.3008489823966667</v>
       </c>
       <c r="R3">
-        <v>3.34166775222</v>
+        <v>1.80509389438</v>
       </c>
       <c r="S3">
-        <v>0.06511529192359242</v>
+        <v>0.03947452886876739</v>
       </c>
       <c r="T3">
-        <v>0.07038307436168308</v>
+        <v>0.03940325216186268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3638525</v>
+        <v>0.7367224999999999</v>
       </c>
       <c r="H4">
-        <v>2.727705</v>
+        <v>1.473445</v>
       </c>
       <c r="I4">
-        <v>0.3922705429335345</v>
+        <v>0.2969570390816903</v>
       </c>
       <c r="J4">
-        <v>0.339883908619157</v>
+        <v>0.2697006915285013</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N4">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q4">
-        <v>0.1461390684625</v>
+        <v>0.03387548284666667</v>
       </c>
       <c r="R4">
-        <v>0.8768344107749999</v>
+        <v>0.20325289708</v>
       </c>
       <c r="S4">
-        <v>0.0170858783277705</v>
+        <v>0.00444481718010622</v>
       </c>
       <c r="T4">
-        <v>0.0184681141610982</v>
+        <v>0.004436791449578955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3638525</v>
+        <v>0.7367224999999999</v>
       </c>
       <c r="H5">
-        <v>2.727705</v>
+        <v>1.473445</v>
       </c>
       <c r="I5">
-        <v>0.3922705429335345</v>
+        <v>0.2969570390816903</v>
       </c>
       <c r="J5">
-        <v>0.339883908619157</v>
+        <v>0.2697006915285013</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N5">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q5">
-        <v>1.006405853685</v>
+        <v>0.39159858273375</v>
       </c>
       <c r="R5">
-        <v>4.02562341474</v>
+        <v>1.566394330935</v>
       </c>
       <c r="S5">
-        <v>0.1176641410495258</v>
+        <v>0.05138182431579692</v>
       </c>
       <c r="T5">
-        <v>0.08478872621718511</v>
+        <v>0.03419269822966381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3638525</v>
+        <v>0.7367224999999999</v>
       </c>
       <c r="H6">
-        <v>2.727705</v>
+        <v>1.473445</v>
       </c>
       <c r="I6">
-        <v>0.3922705429335345</v>
+        <v>0.2969570390816903</v>
       </c>
       <c r="J6">
-        <v>0.339883908619157</v>
+        <v>0.2697006915285013</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N6">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q6">
-        <v>0.27253773584</v>
+        <v>1.228822433229166</v>
       </c>
       <c r="R6">
-        <v>1.63522641504</v>
+        <v>7.372934599374999</v>
       </c>
       <c r="S6">
-        <v>0.03186380372667554</v>
+        <v>0.1612343383337007</v>
       </c>
       <c r="T6">
-        <v>0.03444156358497594</v>
+        <v>0.1609432074955192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3638525</v>
+        <v>0.7367224999999999</v>
       </c>
       <c r="H7">
-        <v>2.727705</v>
+        <v>1.473445</v>
       </c>
       <c r="I7">
-        <v>0.3922705429335345</v>
+        <v>0.2969570390816903</v>
       </c>
       <c r="J7">
-        <v>0.339883908619157</v>
+        <v>0.2697006915285013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N7">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q7">
-        <v>0.3825883579175</v>
+        <v>0.0876294577625</v>
       </c>
       <c r="R7">
-        <v>2.295530147505</v>
+        <v>0.525776746575</v>
       </c>
       <c r="S7">
-        <v>0.04473039414971573</v>
+        <v>0.01149790015124401</v>
       </c>
       <c r="T7">
-        <v>0.0483490523448942</v>
+        <v>0.01147713910652516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.504344</v>
       </c>
       <c r="I8">
-        <v>0.1442262115682854</v>
+        <v>0.2021229341216475</v>
       </c>
       <c r="J8">
-        <v>0.1874478063528781</v>
+        <v>0.2753564721430062</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N8">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O8">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P8">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q8">
-        <v>0.36419792154</v>
+        <v>0.150039760424</v>
       </c>
       <c r="R8">
-        <v>2.18518752924</v>
+        <v>0.9002385625440001</v>
       </c>
       <c r="S8">
-        <v>0.04258027261379532</v>
+        <v>0.01968678373826454</v>
       </c>
       <c r="T8">
-        <v>0.04602498745201284</v>
+        <v>0.01965123653467223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.504344</v>
       </c>
       <c r="I9">
-        <v>0.1442262115682854</v>
+        <v>0.2021229341216475</v>
       </c>
       <c r="J9">
-        <v>0.1874478063528781</v>
+        <v>0.2753564721430062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P9">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q9">
         <v>0.2047719738773333</v>
@@ -1013,10 +1013,10 @@
         <v>1.842947764896</v>
       </c>
       <c r="S9">
-        <v>0.0239409561550839</v>
+        <v>0.02686822182325865</v>
       </c>
       <c r="T9">
-        <v>0.03881664462159646</v>
+        <v>0.04022956131391749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.504344</v>
       </c>
       <c r="I10">
-        <v>0.1442262115682854</v>
+        <v>0.2021229341216475</v>
       </c>
       <c r="J10">
-        <v>0.1874478063528781</v>
+        <v>0.2753564721430062</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N10">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O10">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P10">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q10">
-        <v>0.05373098894666666</v>
+        <v>0.02305724763733333</v>
       </c>
       <c r="R10">
-        <v>0.48357890052</v>
+        <v>0.207515228736</v>
       </c>
       <c r="S10">
-        <v>0.006281969286050994</v>
+        <v>0.003025351723790035</v>
       </c>
       <c r="T10">
-        <v>0.01018526443642664</v>
+        <v>0.004529833550913271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>1.504344</v>
       </c>
       <c r="I11">
-        <v>0.1442262115682854</v>
+        <v>0.2021229341216475</v>
       </c>
       <c r="J11">
-        <v>0.1874478063528781</v>
+        <v>0.2753564721430062</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N11">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O11">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P11">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q11">
-        <v>0.370025499472</v>
+        <v>0.266540422092</v>
       </c>
       <c r="R11">
-        <v>2.220152996832</v>
+        <v>1.599242532552</v>
       </c>
       <c r="S11">
-        <v>0.04326160504966823</v>
+        <v>0.03497288740266211</v>
       </c>
       <c r="T11">
-        <v>0.04676143921445507</v>
+        <v>0.03490973903037126</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.504344</v>
       </c>
       <c r="I12">
-        <v>0.1442262115682854</v>
+        <v>0.2021229341216475</v>
       </c>
       <c r="J12">
-        <v>0.1874478063528781</v>
+        <v>0.2753564721430062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N12">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O12">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P12">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q12">
-        <v>0.1002040195413333</v>
+        <v>0.8363943703333333</v>
       </c>
       <c r="R12">
-        <v>0.9018361758720002</v>
+        <v>7.527549333000001</v>
       </c>
       <c r="S12">
-        <v>0.01171537292422311</v>
+        <v>0.1097436775566886</v>
       </c>
       <c r="T12">
-        <v>0.01899470783302338</v>
+        <v>0.1643182803135776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>1.504344</v>
       </c>
       <c r="I13">
-        <v>0.1442262115682854</v>
+        <v>0.2021229341216475</v>
       </c>
       <c r="J13">
-        <v>0.1874478063528781</v>
+        <v>0.2753564721430062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N13">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O13">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P13">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q13">
-        <v>0.1406663601093333</v>
+        <v>0.05964473236000001</v>
       </c>
       <c r="R13">
-        <v>1.265997240984</v>
+        <v>0.5368025912400001</v>
       </c>
       <c r="S13">
-        <v>0.01644603553946388</v>
+        <v>0.007826011876983539</v>
       </c>
       <c r="T13">
-        <v>0.0266647627953637</v>
+        <v>0.01171782139955443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0411935</v>
+        <v>1.2427355</v>
       </c>
       <c r="H14">
-        <v>2.082387</v>
+        <v>2.485471</v>
       </c>
       <c r="I14">
-        <v>0.2994675300619877</v>
+        <v>0.5009200267966621</v>
       </c>
       <c r="J14">
-        <v>0.2594744786616297</v>
+        <v>0.4549428363284925</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N14">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O14">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P14">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q14">
-        <v>0.7562110300987501</v>
+        <v>0.3718426171615</v>
       </c>
       <c r="R14">
-        <v>3.024844120395001</v>
+        <v>1.487370468646</v>
       </c>
       <c r="S14">
-        <v>0.08841256336392149</v>
+        <v>0.04878963528095445</v>
       </c>
       <c r="T14">
-        <v>0.0637100527174866</v>
+        <v>0.03246769257634444</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0411935</v>
+        <v>1.2427355</v>
       </c>
       <c r="H15">
-        <v>2.082387</v>
+        <v>2.485471</v>
       </c>
       <c r="I15">
-        <v>0.2994675300619877</v>
+        <v>0.5009200267966621</v>
       </c>
       <c r="J15">
-        <v>0.2594744786616297</v>
+        <v>0.4549428363284925</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P15">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q15">
-        <v>0.425183165918</v>
+        <v>0.5074851257606667</v>
       </c>
       <c r="R15">
-        <v>2.551098995508001</v>
+        <v>3.044910754564</v>
       </c>
       <c r="S15">
-        <v>0.04971037462001714</v>
+        <v>0.0665873491999933</v>
       </c>
       <c r="T15">
-        <v>0.0537319098182546</v>
+        <v>0.06646711655609608</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0411935</v>
+        <v>1.2427355</v>
       </c>
       <c r="H16">
-        <v>2.082387</v>
+        <v>2.485471</v>
       </c>
       <c r="I16">
-        <v>0.2994675300619877</v>
+        <v>0.5009200267966621</v>
       </c>
       <c r="J16">
-        <v>0.2594744786616297</v>
+        <v>0.4549428363284925</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N16">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O16">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P16">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q16">
-        <v>0.1115656188475</v>
+        <v>0.05714263527066667</v>
       </c>
       <c r="R16">
-        <v>0.6693937130850001</v>
+        <v>0.342855811624</v>
       </c>
       <c r="S16">
-        <v>0.01304371657247798</v>
+        <v>0.007497710604369886</v>
       </c>
       <c r="T16">
-        <v>0.01409894429331134</v>
+        <v>0.007484172453655518</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0411935</v>
+        <v>1.2427355</v>
       </c>
       <c r="H17">
-        <v>2.082387</v>
+        <v>2.485471</v>
       </c>
       <c r="I17">
-        <v>0.2994675300619877</v>
+        <v>0.5009200267966621</v>
       </c>
       <c r="J17">
-        <v>0.2594744786616297</v>
+        <v>0.4549428363284925</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N17">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O17">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P17">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q17">
-        <v>0.7683112603590001</v>
+        <v>0.66056549177325</v>
       </c>
       <c r="R17">
-        <v>3.073245041436</v>
+        <v>2.642261967093</v>
       </c>
       <c r="S17">
-        <v>0.08982726419744767</v>
+        <v>0.08667309215071353</v>
       </c>
       <c r="T17">
-        <v>0.06472948549099902</v>
+        <v>0.05767772795155621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0411935</v>
+        <v>1.2427355</v>
       </c>
       <c r="H18">
-        <v>2.082387</v>
+        <v>2.485471</v>
       </c>
       <c r="I18">
-        <v>0.2994675300619877</v>
+        <v>0.5009200267966621</v>
       </c>
       <c r="J18">
-        <v>0.2594744786616297</v>
+        <v>0.4549428363284925</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N18">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O18">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P18">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q18">
-        <v>0.208061002976</v>
+        <v>2.072831033354166</v>
       </c>
       <c r="R18">
-        <v>1.248366017856</v>
+        <v>12.436986200125</v>
       </c>
       <c r="S18">
-        <v>0.02432549364794972</v>
+        <v>0.271977082369957</v>
       </c>
       <c r="T18">
-        <v>0.02629340939325451</v>
+        <v>0.2714859902318006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0411935</v>
+        <v>1.2427355</v>
       </c>
       <c r="H19">
-        <v>2.082387</v>
+        <v>2.485471</v>
       </c>
       <c r="I19">
-        <v>0.2994675300619877</v>
+        <v>0.5009200267966621</v>
       </c>
       <c r="J19">
-        <v>0.2594744786616297</v>
+        <v>0.4549428363284925</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N19">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O19">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P19">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q19">
-        <v>0.2920759476845</v>
+        <v>0.1478171740475</v>
       </c>
       <c r="R19">
-        <v>1.752455686107</v>
+        <v>0.886903044285</v>
       </c>
       <c r="S19">
-        <v>0.03414811766017371</v>
+        <v>0.01939515719067396</v>
       </c>
       <c r="T19">
-        <v>0.03691067694832367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.570322</v>
-      </c>
-      <c r="H20">
-        <v>1.710966</v>
-      </c>
-      <c r="I20">
-        <v>0.1640357154361922</v>
-      </c>
-      <c r="J20">
-        <v>0.2131938063663353</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.7262925</v>
-      </c>
-      <c r="N20">
-        <v>1.452585</v>
-      </c>
-      <c r="O20">
-        <v>0.2952325527432663</v>
-      </c>
-      <c r="P20">
-        <v>0.2455349483544712</v>
-      </c>
-      <c r="Q20">
-        <v>0.414220591185</v>
-      </c>
-      <c r="R20">
-        <v>2.48532354711</v>
-      </c>
-      <c r="S20">
-        <v>0.04842868300929503</v>
-      </c>
-      <c r="T20">
-        <v>0.05234653023565128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.570322</v>
-      </c>
-      <c r="H21">
-        <v>1.710966</v>
-      </c>
-      <c r="I21">
-        <v>0.1640357154361922</v>
-      </c>
-      <c r="J21">
-        <v>0.2131938063663353</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.4083613333333334</v>
-      </c>
-      <c r="N21">
-        <v>1.225084</v>
-      </c>
-      <c r="O21">
-        <v>0.1659958747772335</v>
-      </c>
-      <c r="P21">
-        <v>0.2070797486342548</v>
-      </c>
-      <c r="Q21">
-        <v>0.2328974523493333</v>
-      </c>
-      <c r="R21">
-        <v>2.096077071144</v>
-      </c>
-      <c r="S21">
-        <v>0.02722925207854007</v>
-      </c>
-      <c r="T21">
-        <v>0.04414811983272071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.570322</v>
-      </c>
-      <c r="H22">
-        <v>1.710966</v>
-      </c>
-      <c r="I22">
-        <v>0.1640357154361922</v>
-      </c>
-      <c r="J22">
-        <v>0.2131938063663353</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1071516666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.321455</v>
-      </c>
-      <c r="O22">
-        <v>0.04355636342203115</v>
-      </c>
-      <c r="P22">
-        <v>0.05433653577813797</v>
-      </c>
-      <c r="Q22">
-        <v>0.06111095283666666</v>
-      </c>
-      <c r="R22">
-        <v>0.54999857553</v>
-      </c>
-      <c r="S22">
-        <v>0.007144799235731671</v>
-      </c>
-      <c r="T22">
-        <v>0.0115842128873018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.570322</v>
-      </c>
-      <c r="H23">
-        <v>1.710966</v>
-      </c>
-      <c r="I23">
-        <v>0.1640357154361922</v>
-      </c>
-      <c r="J23">
-        <v>0.2131938063663353</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.7379140000000001</v>
-      </c>
-      <c r="N23">
-        <v>1.475828</v>
-      </c>
-      <c r="O23">
-        <v>0.29995660691112</v>
-      </c>
-      <c r="P23">
-        <v>0.2494637847424299</v>
-      </c>
-      <c r="Q23">
-        <v>0.420848588308</v>
-      </c>
-      <c r="R23">
-        <v>2.525091529848</v>
-      </c>
-      <c r="S23">
-        <v>0.04920359661447823</v>
-      </c>
-      <c r="T23">
-        <v>0.05318413381979076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.570322</v>
-      </c>
-      <c r="H24">
-        <v>1.710966</v>
-      </c>
-      <c r="I24">
-        <v>0.1640357154361922</v>
-      </c>
-      <c r="J24">
-        <v>0.2131938063663353</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.1998293333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.599488</v>
-      </c>
-      <c r="O24">
-        <v>0.08122915243236724</v>
-      </c>
-      <c r="P24">
-        <v>0.1013333162046457</v>
-      </c>
-      <c r="Q24">
-        <v>0.1139670650453333</v>
-      </c>
-      <c r="R24">
-        <v>1.025703585408</v>
-      </c>
-      <c r="S24">
-        <v>0.01332448213351887</v>
-      </c>
-      <c r="T24">
-        <v>0.02160363539339186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.570322</v>
-      </c>
-      <c r="H25">
-        <v>1.710966</v>
-      </c>
-      <c r="I25">
-        <v>0.1640357154361922</v>
-      </c>
-      <c r="J25">
-        <v>0.2131938063663353</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.2805203333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.841561</v>
-      </c>
-      <c r="O25">
-        <v>0.1140294497139816</v>
-      </c>
-      <c r="P25">
-        <v>0.1422516662860605</v>
-      </c>
-      <c r="Q25">
-        <v>0.1599869175473333</v>
-      </c>
-      <c r="R25">
-        <v>1.439882257926</v>
-      </c>
-      <c r="S25">
-        <v>0.01870490236462827</v>
-      </c>
-      <c r="T25">
-        <v>0.03032717419747893</v>
+        <v>0.01936013655903966</v>
       </c>
     </row>
   </sheetData>
